--- a/samples_wind/plot/null_outliers_check/풍속_null_outliers_check.xlsx
+++ b/samples_wind/plot/null_outliers_check/풍속_null_outliers_check.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,27 +451,17 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>z-score</t>
+          <t>IQR</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>IQR</t>
+          <t>method</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>method(min)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>in-range(min)</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>in-range(max)</t>
+          <t>in-range</t>
         </is>
       </c>
     </row>
@@ -485,37 +475,21 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>no_index</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>no_index</t>
-        </is>
+        <v>8845</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>595</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>no_index</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>no_index</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>no_index</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>no_index</t>
-        </is>
+          <t>iqr</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>8250</v>
       </c>
     </row>
     <row r="3">
@@ -528,37 +502,21 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>no_index</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>no_index</t>
-        </is>
+        <v>8803</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>191</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>no_index</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>no_index</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>no_index</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>no_index</t>
-        </is>
+          <t>iqr</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>8612</v>
       </c>
     </row>
     <row r="4">
@@ -571,37 +529,21 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>no_index</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>no_index</t>
-        </is>
+        <v>8782</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>567</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>no_index</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>no_index</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>no_index</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>no_index</t>
-        </is>
+          <t>iqr</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>8215</v>
       </c>
     </row>
     <row r="5">
@@ -614,37 +556,21 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>no_index</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>no_index</t>
-        </is>
+        <v>8748</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>296</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>no_index</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>no_index</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>no_index</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>no_index</t>
-        </is>
+          <t>iqr</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>8452</v>
       </c>
     </row>
     <row r="6">
@@ -657,37 +583,21 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>no_index</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>no_index</t>
-        </is>
+        <v>8741</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>354</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>no_index</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>no_index</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>no_index</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>no_index</t>
-        </is>
+          <t>iqr</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>8387</v>
       </c>
     </row>
     <row r="7">
@@ -700,37 +610,21 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>no_index</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>no_index</t>
-        </is>
+        <v>8688</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>986</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>no_index</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>no_index</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>no_index</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>no_index</t>
-        </is>
+          <t>iqr</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>7702</v>
       </c>
     </row>
     <row r="8">
@@ -743,37 +637,21 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>no_index</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>no_index</t>
-        </is>
+        <v>8675</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>274</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>no_index</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>no_index</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>no_index</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>no_index</t>
-        </is>
+          <t>iqr</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>8401</v>
       </c>
     </row>
     <row r="9">
@@ -786,37 +664,21 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>no_index</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>no_index</t>
-        </is>
+        <v>8635</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>185</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>no_index</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>no_index</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>no_index</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>no_index</t>
-        </is>
+          <t>iqr</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>8450</v>
       </c>
     </row>
     <row r="10">
@@ -829,37 +691,21 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>no_index</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>no_index</t>
-        </is>
+        <v>8420</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>166</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>no_index</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>no_index</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>no_index</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>no_index</t>
-        </is>
+          <t>iqr</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>8254</v>
       </c>
     </row>
     <row r="11">
@@ -872,37 +718,21 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>no_index</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>no_index</t>
-        </is>
+        <v>8585</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>310</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>no_index</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>no_index</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>no_index</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>no_index</t>
-        </is>
+          <t>iqr</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>8275</v>
       </c>
     </row>
     <row r="12">
@@ -915,37 +745,21 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>no_index</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>no_index</t>
-        </is>
+        <v>8615</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>557</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>no_index</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>no_index</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>no_index</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>no_index</t>
-        </is>
+          <t>iqr</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>8058</v>
       </c>
     </row>
     <row r="13">
@@ -958,37 +772,21 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>no_index</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>no_index</t>
-        </is>
+        <v>8120</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>405</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>no_index</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>no_index</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>no_index</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>no_index</t>
-        </is>
+          <t>iqr</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>7715</v>
       </c>
     </row>
     <row r="14">
@@ -1001,37 +799,21 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>no_index</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>no_index</t>
-        </is>
+        <v>8573</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>645</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>no_index</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>no_index</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>no_index</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>no_index</t>
-        </is>
+          <t>iqr</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>7928</v>
       </c>
     </row>
     <row r="15">
@@ -1044,37 +826,21 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>no_index</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>no_index</t>
-        </is>
+        <v>8583</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>497</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>no_index</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>no_index</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>no_index</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>no_index</t>
-        </is>
+          <t>iqr</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>8086</v>
       </c>
     </row>
     <row r="16">
@@ -1087,37 +853,21 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>no_index</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>no_index</t>
-        </is>
+        <v>8550</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>604</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>no_index</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>no_index</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>no_index</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>no_index</t>
-        </is>
+          <t>iqr</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>7946</v>
       </c>
     </row>
     <row r="17">
@@ -1130,37 +880,21 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>no_index</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>no_index</t>
-        </is>
+        <v>8580</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>299</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>no_index</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>no_index</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>no_index</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>no_index</t>
-        </is>
+          <t>iqr</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>8281</v>
       </c>
     </row>
     <row r="18">
@@ -1173,37 +907,21 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>no_index</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>no_index</t>
-        </is>
+        <v>8348</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>354</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>no_index</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>no_index</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>no_index</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>no_index</t>
-        </is>
+          <t>iqr</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>7994</v>
       </c>
     </row>
     <row r="19">
@@ -1216,37 +934,21 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>no_index</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>no_index</t>
-        </is>
+        <v>8782</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>631</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>no_index</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>no_index</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>no_index</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>no_index</t>
-        </is>
+          <t>iqr</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>8151</v>
       </c>
     </row>
     <row r="20">
@@ -1259,37 +961,21 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>no_index</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>no_index</t>
-        </is>
+        <v>8870</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>673</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>no_index</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>no_index</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>no_index</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>no_index</t>
-        </is>
+          <t>iqr</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>8197</v>
       </c>
     </row>
     <row r="21">
@@ -1302,37 +988,21 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>no_index</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>no_index</t>
-        </is>
+        <v>8847</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>813</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>no_index</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>no_index</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>no_index</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>no_index</t>
-        </is>
+          <t>iqr</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>8034</v>
       </c>
     </row>
     <row r="22">
@@ -1345,37 +1015,21 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>no_index</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>no_index</t>
-        </is>
+        <v>7158</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1327</v>
+      </c>
+      <c r="E22" t="n">
+        <v>5831</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>no_index</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>no_index</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>no_index</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>no_index</t>
-        </is>
+          <t>iqr</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1388,27 +1042,21 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2717</v>
+        <v>12698</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>1</v>
-      </c>
-      <c r="F23" t="n">
-        <v>53</v>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>z_score</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>2716</v>
-      </c>
-      <c r="I23" t="n">
-        <v>2664</v>
+        <v>340</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>iqr</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>12358</v>
       </c>
     </row>
     <row r="24">
@@ -1421,27 +1069,21 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3367</v>
+        <v>13373</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>1</v>
-      </c>
-      <c r="F24" t="n">
-        <v>46</v>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>z_score</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>3366</v>
-      </c>
-      <c r="I24" t="n">
-        <v>3321</v>
+        <v>563</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>iqr</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>12810</v>
       </c>
     </row>
     <row r="25">
@@ -1454,27 +1096,21 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3367</v>
+        <v>13340</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>1</v>
-      </c>
-      <c r="F25" t="n">
-        <v>47</v>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>z_score</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>3366</v>
-      </c>
-      <c r="I25" t="n">
-        <v>3320</v>
+        <v>174</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>iqr</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>13166</v>
       </c>
     </row>
     <row r="26">
@@ -1487,27 +1123,21 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3055</v>
+        <v>13110</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>1</v>
-      </c>
-      <c r="F26" t="n">
-        <v>61</v>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>z_score</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>3054</v>
-      </c>
-      <c r="I26" t="n">
-        <v>2994</v>
+        <v>461</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>iqr</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>12649</v>
       </c>
     </row>
     <row r="27">
@@ -1520,27 +1150,21 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2691</v>
+        <v>11780</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>3324</v>
       </c>
       <c r="E27" t="n">
-        <v>1</v>
-      </c>
-      <c r="F27" t="n">
-        <v>13</v>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>z_score</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>2690</v>
-      </c>
-      <c r="I27" t="n">
-        <v>2678</v>
+        <v>280</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>iqr</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>8176</v>
       </c>
     </row>
     <row r="28">
@@ -1553,27 +1177,21 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3367</v>
+        <v>13080</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>1</v>
-      </c>
-      <c r="F28" t="n">
-        <v>89</v>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>z_score</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>3366</v>
-      </c>
-      <c r="I28" t="n">
-        <v>3278</v>
+        <v>578</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>iqr</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>12502</v>
       </c>
     </row>
     <row r="29">
@@ -1586,27 +1204,21 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3367</v>
+        <v>13287</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>5687</v>
       </c>
       <c r="E29" t="n">
-        <v>1</v>
-      </c>
-      <c r="F29" t="n">
-        <v>311</v>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>z_score</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>3366</v>
-      </c>
-      <c r="I29" t="n">
-        <v>3056</v>
+        <v>1540</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>iqr</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>6060</v>
       </c>
     </row>
     <row r="30">
@@ -1619,27 +1231,21 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3202</v>
+        <v>13055</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="E30" t="n">
-        <v>1</v>
-      </c>
-      <c r="F30" t="n">
-        <v>97</v>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>z_score</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>3201</v>
-      </c>
-      <c r="I30" t="n">
-        <v>3105</v>
+        <v>12967</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>iqr</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1652,27 +1258,21 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3186</v>
+        <v>12684</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>1</v>
-      </c>
-      <c r="F31" t="n">
-        <v>30</v>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>z_score</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>3185</v>
-      </c>
-      <c r="I31" t="n">
-        <v>3156</v>
+        <v>260</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>iqr</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>12424</v>
       </c>
     </row>
     <row r="32">
@@ -1685,27 +1285,21 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>7049</v>
       </c>
       <c r="D32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
+        <v>539</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>iqr</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>6506</v>
       </c>
     </row>
     <row r="33">
@@ -1718,27 +1312,21 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3063</v>
+        <v>13030</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>1</v>
-      </c>
-      <c r="F33" t="n">
-        <v>22</v>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>z_score</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>3062</v>
-      </c>
-      <c r="I33" t="n">
-        <v>3041</v>
+        <v>480</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>iqr</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>12550</v>
       </c>
     </row>
   </sheetData>
